--- a/xlsx/赫西俄德_intext.xlsx
+++ b/xlsx/赫西俄德_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>赫西俄德</t>
   </si>
@@ -29,7 +29,7 @@
     <t>希腊语</t>
   </si>
   <si>
-    <t>政策_政策_政治學_赫西俄德</t>
+    <t>政策_政策_政治学_赫西俄德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E8%88%87%E6%99%82%E6%97%A5</t>
   </si>
   <si>
-    <t>工作與時日</t>
+    <t>工作与时日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A1%94%E5%85%8B</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%9B%B7%E7%89%B9%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>埃雷特里亞</t>
+    <t>埃雷特里亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>Template talk-古希臘</t>
+    <t>Template talk-古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%96%87%E6%98%8E</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A2%A8%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古風時期</t>
+    <t>古风时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古典希臘時期</t>
+    <t>古典希腊时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%99%82%E4%BB%A3%E7%9A%84%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘化時代的希臘</t>
+    <t>希腊化时代的希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%9A%84%E7%BD%97%E9%A9%AC%E6%97%B6%E6%9C%9F</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E9%81%94%E5%B0%BC%E7%88%BE%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>達達尼爾海峽</t>
+    <t>达达尼尔海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓王國</t>
+    <t>马其顿王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E8%BE%BE</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E6%AF%94%E6%96%AF_(%E5%B8%8C%E8%87%98)</t>
   </si>
   <si>
-    <t>底比斯 (希臘)</t>
+    <t>底比斯 (希腊)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%B3%89%E9%97%9C</t>
   </si>
   <si>
-    <t>溫泉關</t>
+    <t>温泉关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛奧尼亞</t>
+    <t>爱奥尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A5%A5%E5%88%A9%E4%BA%9A</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%83%BD</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>古希臘殖民地</t>
+    <t>古希腊殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古希臘農業</t>
+    <t>古希腊农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%A5%AE%E9%A3%9F%E6%96%87%E5%8C%96</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>古希臘經濟</t>
+    <t>古希腊经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
@@ -383,25 +383,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>古希臘法律</t>
+    <t>古希腊法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%B3%A3%E6%B7%AB%E6%A5%AD</t>
   </si>
   <si>
-    <t>古希臘賣淫業</t>
+    <t>古希腊卖淫业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古希臘宗教</t>
+    <t>古希腊宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%8B%B1%E9%9B%84%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>希臘英雄崇拜</t>
+    <t>希腊英雄崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
@@ -431,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%91%A1%E8%90%84%E9%85%92</t>
   </si>
   <si>
-    <t>古希臘葡萄酒</t>
+    <t>古希腊葡萄酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古希臘同性戀</t>
+    <t>古希腊同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%B0%91%E5%B9%B4%E6%84%9B</t>
   </si>
   <si>
-    <t>古希臘少年愛</t>
+    <t>古希腊少年爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E4%B8%A7%E8%91%AC</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%90%89%E4%BA%9E</t>
   </si>
   <si>
-    <t>高爾吉亞</t>
+    <t>高尔吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%97%A8%E5%B0%BC%E5%BE%B7</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E5%96%84</t>
@@ -623,13 +623,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>普魯塔克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%88%A9%E6%AF%94%E7%83%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>波利比烏斯</t>
+    <t>波利比乌斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E5%AD%9A</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%B8%95%E9%BD%8A%E5%A9%AD</t>
   </si>
   <si>
-    <t>阿斯帕齊婭</t>
+    <t>阿斯帕齐娅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%91%A9%E8%A5%BF%E5%B0%BC</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E5%8F%A4%E6%A0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>來古格士</t>
+    <t>来古格士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E6%89%98%E9%82%A3%E7%9A%84%E7%B1%B3%E7%BD%97</t>
@@ -761,19 +758,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古希臘建築</t>
+    <t>古希腊建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>古希臘神廟</t>
+    <t>古希腊神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%BE%B7%E5%AB%A9%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>帕德嫩神廟</t>
+    <t>帕德嫩神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%A1%9B%E5%9F%8E</t>
   </si>
   <si>
-    <t>雅典衛城</t>
+    <t>雅典卫城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8%E9%98%BF%E5%93%A5%E6%8B%89</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>奧林匹亞宙斯神廟</t>
+    <t>奥林匹亚宙斯神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%B7%AE%E6%96%AF%E6%89%98%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -809,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>古希臘神廟列表</t>
+    <t>古希腊神庙列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>古希臘藝術</t>
+    <t>古希腊艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%99%B6%E5%99%A8</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E9%9B%95%E5%88%BB</t>
   </si>
   <si>
-    <t>古希臘雕刻</t>
+    <t>古希腊雕刻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%88%8F%E5%89%A7</t>
@@ -839,13 +836,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>希臘史學</t>
+    <t>希腊史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>古希臘天文學</t>
+    <t>古希腊天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%B0%E5%AD%A6</t>
@@ -857,37 +854,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>古希臘語</t>
+    <t>古希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始希臘語</t>
+    <t>原始希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>邁錫尼希臘語</t>
+    <t>迈锡尼希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿提卡希臘語</t>
+    <t>阿提卡希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>古馬其頓語</t>
+    <t>古马其顿语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用希臘語</t>
+    <t>通用希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E5%BD%A2%E6%96%87%E5%AD%97A</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>塞浦路斯音節文字</t>
+    <t>塞浦路斯音节文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%AD%97%E6%AF%8D</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8D%91%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>優卑亞字母</t>
+    <t>优卑亚字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%AC%A7%E6%B4%B2</t>
@@ -929,13 +926,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -953,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -983,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4307,7 +4304,7 @@
         <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4333,10 +4330,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4362,10 +4359,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4391,10 +4388,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4420,10 +4417,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4449,10 +4446,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4478,10 +4475,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4507,10 +4504,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4536,10 +4533,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4565,10 +4562,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4594,10 +4591,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4623,10 +4620,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4652,10 +4649,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4681,10 +4678,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4710,10 +4707,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4739,10 +4736,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4768,10 +4765,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4797,10 +4794,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4826,10 +4823,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4855,10 +4852,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4884,10 +4881,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4913,10 +4910,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4942,10 +4939,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4971,10 +4968,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5000,10 +4997,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5029,10 +5026,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5058,10 +5055,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5087,10 +5084,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5116,10 +5113,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5145,10 +5142,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5174,10 +5171,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5203,10 +5200,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5232,10 +5229,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5290,10 +5287,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5319,10 +5316,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5348,10 +5345,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5377,10 +5374,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5406,10 +5403,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5435,10 +5432,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5464,10 +5461,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5493,10 +5490,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5522,10 +5519,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5551,10 +5548,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5580,10 +5577,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5609,10 +5606,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5638,10 +5635,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5667,10 +5664,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5696,10 +5693,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5725,10 +5722,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5754,10 +5751,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5783,10 +5780,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5812,10 +5809,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5841,10 +5838,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -5870,10 +5867,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5899,10 +5896,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5928,10 +5925,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5957,10 +5954,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5986,10 +5983,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6015,10 +6012,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6044,10 +6041,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6073,10 +6070,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6102,10 +6099,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6131,10 +6128,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6160,10 +6157,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6189,10 +6186,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>

--- a/xlsx/赫西俄德_intext.xlsx
+++ b/xlsx/赫西俄德_intext.xlsx
@@ -29,7 +29,7 @@
     <t>希腊语</t>
   </si>
   <si>
-    <t>政策_政策_政治學_赫西俄德</t>
+    <t>体育运动_体育运动_古希腊_赫西俄德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
